--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/15/seed5/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.68849999999999</v>
+        <v>-13.51079999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3809</v>
+        <v>16.33199999999999</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.184099999999998</v>
+        <v>5.146499999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.2216</v>
+        <v>-12.87069999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.1141</v>
+        <v>16.05639999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.11360000000001</v>
+        <v>17.16750000000001</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.3761</v>
+        <v>-11.3485</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.620400000000005</v>
+        <v>6.433400000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.4253</v>
+        <v>15.4587</v>
       </c>
     </row>
     <row r="31">
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.70119999999999</v>
+        <v>-13.648</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.597300000000001</v>
+        <v>6.488399999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.5507</v>
+        <v>-12.1566</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.302200000000004</v>
+        <v>9.300600000000003</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.5344</v>
+        <v>-13.3239</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.575</v>
+        <v>5.430400000000002</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6111</v>
+        <v>16.65290000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.3514</v>
+        <v>-13.49319999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.575000000000004</v>
+        <v>7.491500000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>15.99329999999999</v>
+        <v>16.2368</v>
       </c>
     </row>
     <row r="48">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.76309999999999</v>
+        <v>-10.7771</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.532199999999998</v>
+        <v>4.527699999999998</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.565799999999997</v>
+        <v>5.066499999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.6805</v>
+        <v>4.890199999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.55079999999999</v>
+        <v>-14.37039999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.46340000000001</v>
+        <v>16.5747</v>
       </c>
     </row>
     <row r="59">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.851899999999998</v>
+        <v>5.979099999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.847199999999994</v>
+        <v>5.806599999999992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.605300000000001</v>
+        <v>5.402600000000004</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.58690000000002</v>
+        <v>16.64660000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.8719</v>
+        <v>-12.93</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.810299999999993</v>
+        <v>4.978099999999995</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.37349999999999</v>
+        <v>-14.27629999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.7402</v>
+        <v>16.70439999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.029900000000006</v>
+        <v>4.999300000000003</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.29560000000001</v>
+        <v>17.27460000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.486100000000001</v>
+        <v>5.573600000000002</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.94600000000002</v>
+        <v>17.94680000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.03940000000002</v>
+        <v>18.02000000000003</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.861100000000005</v>
+        <v>7.068799999999997</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.06379999999999</v>
+        <v>15.8053</v>
       </c>
     </row>
     <row r="97">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.4629</v>
+        <v>4.475799999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.49020000000001</v>
+        <v>-13.05899999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.0895</v>
+        <v>-12.08150000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.79149999999999</v>
+        <v>16.7456</v>
       </c>
     </row>
   </sheetData>
